--- a/docs_working/sdoc_rough_ideas - snefuru app concepts 1.xlsx
+++ b/docs_working/sdoc_rough_ideas - snefuru app concepts 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/docs_working/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8876886-E759-7547-8527-A4756FC39753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BD4947-A6E0-9C41-BF58-C9CBC936ED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,16 +30,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>filetags</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>Column Wrangler</t>
+  </si>
+  <si>
+    <t>vertomi column</t>
+  </si>
+  <si>
+    <t>horomi row</t>
+  </si>
+  <si>
+    <t>starts at "0"</t>
+  </si>
+  <si>
+    <t>———————————————————————</t>
+  </si>
+  <si>
+    <t>jepli pagination widget box</t>
+  </si>
+  <si>
+    <t>filter stations</t>
+  </si>
+  <si>
+    <t>Building Your Herd Of Sites</t>
+  </si>
+  <si>
+    <t>/chanbri_filter_controls_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -55,8 +85,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -66,6 +104,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -82,10 +138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,11 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="E1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -379,7 +439,85 @@
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
